--- a/DB Datos.xlsx
+++ b/DB Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Dolar_DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\DolarDB2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8759CC-6507-4A0C-9F88-43A28CC1CE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C15ADE-8874-4A84-B365-3BADE8084A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B459BD6-A0E6-4669-B6A2-9CFA8FE989F0}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{8B459BD6-A0E6-4669-B6A2-9CFA8FE989F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Promedio</t>
   </si>
@@ -74,6 +74,42 @@
   </si>
   <si>
     <t>Moda</t>
+  </si>
+  <si>
+    <t>desviasion estandar</t>
+  </si>
+  <si>
+    <t>desviacion media</t>
+  </si>
+  <si>
+    <t>esperanza</t>
+  </si>
+  <si>
+    <t>covarianza</t>
+  </si>
+  <si>
+    <t>varianza</t>
+  </si>
+  <si>
+    <t>varianza2</t>
+  </si>
+  <si>
+    <t>coeficiente de variacion</t>
+  </si>
+  <si>
+    <t>coeficiente de pearson</t>
+  </si>
+  <si>
+    <t>coef_asimetria</t>
+  </si>
+  <si>
+    <t>coefi_asimetria</t>
+  </si>
+  <si>
+    <t>kurtosis</t>
+  </si>
+  <si>
+    <t>numero de indice</t>
   </si>
 </sst>
 </file>
@@ -515,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA5CDBB-92F5-45A9-8A0F-EFA66CE51800}">
   <dimension ref="A1:B4079"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection sqref="A1:B4079"/>
     </sheetView>
   </sheetViews>
@@ -33166,8 +33202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58670D23-68AD-4B4C-A197-46D3804EB453}">
   <dimension ref="A2:B4079"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33261,101 +33297,137 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
       <c r="B13">
-        <v>-5.8442846649186704E-3</v>
+        <v>812.36078721774606</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
       <c r="B14">
-        <v>-6.3101010155487604E-3</v>
+        <v>647.91520005551411</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
       <c r="B15">
-        <v>-6.2958962696819042E-4</v>
+        <v>2966.8851642962218</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+        <v>659930.04860903602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+        <v>659930.04860903602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+        <v>0.27380931253887852</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
       <c r="B19">
-        <v>-2.6991652682058034E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+        <v>27.380931253887852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
       <c r="B20">
-        <v>-4.9555093283378399E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+        <v>1.4392683431959237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
       <c r="B21">
-        <v>-2.9443313412579131E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+        <v>2.3447472316073292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
       <c r="B22">
-        <v>3.7818493188280663E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+        <v>2.3454158760031851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+        <v>147.80511659031242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
       <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>-9.4053315105946927E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>1.6726008114597846E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>6.062008839518089E-5</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>-7.0590569188125497E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>4.8116411747729289E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>2.5020021540415748E-3</v>
       </c>
